--- a/biology/Botanique/Gynura_procumbens/Gynura_procumbens.xlsx
+++ b/biology/Botanique/Gynura_procumbens/Gynura_procumbens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gynura procumbens est une espèce de plantes à fleurs de la famille des Asteraceae. 
 </t>
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques générales
-Ses feuilles ont un aspect de velours semblable à celui de l’écorce du pin parasol. Elles sont de couleurs mauves et vertes. 
+          <t>Caractéristiques générales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles ont un aspect de velours semblable à celui de l’écorce du pin parasol. Elles sont de couleurs mauves et vertes. 
 Sa tige est empreinte d'un léger aspect caoutchouteux. Ses rameaux souples se laissent pendre en suspension.
-Biotope
-Gynura procumbens aime les lieux clairs, sans soleil direct, et relativement chauds (entre 16 et 20 °C).[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Histoire et mythologie</t>
+          <t>Aspects botaniques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorsqu’une mégère, le papillon, se pose sur votre plante au mois d'octobre et meurt, cela signifie que l'hiver approche.[réf. nécessaire]
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gynura procumbens aime les lieux clairs, sans soleil direct, et relativement chauds (entre 16 et 20 °C).[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -574,12 +595,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire et mythologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu’une mégère, le papillon, se pose sur votre plante au mois d'octobre et meurt, cela signifie que l'hiver approche.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gynura_procumbens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gynura_procumbens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 mai 2013)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 mai 2013) :
 variété Gynura procumbens var. annua
 variété Gynura procumbens var. procumbens</t>
         </is>
